--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_16_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16920.07664808954</v>
+        <v>3367095.252969816</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16920.07664808954</v>
+        <v>3367095.252969816</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53591.71163612801</v>
+        <v>3344548.811402981</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53591.71163612801</v>
+        <v>3344548.811402981</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495917698.15698</v>
+        <v>57751689.58489066</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14827.26178675975</v>
+        <v>1378274.129014166</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28242.98278005094</v>
+        <v>2520651.426315479</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41680.57729940662</v>
+        <v>3663028.723616793</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55807.59993061263</v>
+        <v>4800609.396844492</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>69906.6940349159</v>
+        <v>5941287.625525833</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84005.78813921918</v>
+        <v>7081965.85420717</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98039.23964947989</v>
+        <v>8237525.299331214</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112060.02045267</v>
+        <v>9390563.273748187</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>126153.8573845692</v>
+        <v>10526796.49508439</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140262.2656295999</v>
+        <v>11665929.40773373</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154370.6738746305</v>
+        <v>12805062.32038306</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>168479.0821196611</v>
+        <v>13944195.2330324</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>182587.4903646917</v>
+        <v>15083328.14568175</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>196695.8986097222</v>
+        <v>16222461.0583311</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>210829.1737388954</v>
+        <v>17347012.31881675</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>206</v>
@@ -27052,13 +27052,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>197</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,16 +27144,16 @@
         <v>1089</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
